--- a/P4_02_recommandations.xlsx
+++ b/P4_02_recommandations.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\phil\FORMATION\OPENCLASSROOM\PARCOURS DEV WEB\PROJET 4 - OPTIMISEZ UN SITE WEB EXISTANT\MA CHOUETTE AGENCE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\phil\FORMATION\OPENCLASSROOM\PARCOURS DEV WEB\PROJET 4 - OPTIMISEZ UN SITE WEB EXISTANT\MA CHOUETTE AGENCE\P4_la_chouette_agence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C855B1-79AF-401B-AC0D-F882BA6284DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A0BE22-8F68-4E1A-AAD2-3AC651D95023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="10 Recommandations SEO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Source">'10 Recommandations SEO'!$G$28</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'10 Recommandations SEO'!$A$1:$G$39</definedName>
+    <definedName name="Source">'10 Recommandations SEO'!$G$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'10 Recommandations SEO'!$A$1:$G$40</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="125">
   <si>
     <t>N°</t>
   </si>
@@ -413,6 +413,18 @@
   </si>
   <si>
     <t xml:space="preserve">Organiser l'indexation </t>
+  </si>
+  <si>
+    <t>Le site n'utilise en grande majorité de police lisibles.</t>
+  </si>
+  <si>
+    <t>Les tailles de polices inférieures à 12px sont trop petites et obligent les utilisateurs mobiles "à pincer pour zoomer"</t>
+  </si>
+  <si>
+    <t>S'efforcer d'avoir au moins 60% du texte de la page avec des tailles de polices supérieures à 12px</t>
+  </si>
+  <si>
+    <t>Utilser des polices dont la taille est supérieure à 12px,</t>
   </si>
 </sst>
 </file>
@@ -483,7 +495,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -522,12 +534,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -734,154 +740,154 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -907,7 +913,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>180109</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>249382</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -962,7 +968,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>180109</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>249382</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -1283,25 +1289,25 @@
     <tabColor theme="4" tint="-0.249977111117893"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AA78"/>
+  <dimension ref="A1:AA79"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B21" sqref="B21"/>
-      <selection pane="bottomLeft" activeCell="A40" sqref="A40:XFD40"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1796875" defaultRowHeight="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.1796875" style="23"/>
-    <col min="2" max="2" width="18.36328125" style="24" customWidth="1"/>
-    <col min="3" max="3" width="32.453125" style="25" customWidth="1"/>
-    <col min="4" max="4" width="32" style="25" customWidth="1"/>
-    <col min="5" max="5" width="32.1796875" style="25" customWidth="1"/>
-    <col min="6" max="6" width="32.36328125" style="25" customWidth="1"/>
-    <col min="7" max="7" width="9.90625" style="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="27" width="10.54296875" style="26" customWidth="1"/>
-    <col min="28" max="16384" width="11.1796875" style="26"/>
+    <col min="1" max="1" width="11.1796875" style="22"/>
+    <col min="2" max="2" width="18.36328125" style="23" customWidth="1"/>
+    <col min="3" max="3" width="32.453125" style="24" customWidth="1"/>
+    <col min="4" max="4" width="32" style="24" customWidth="1"/>
+    <col min="5" max="5" width="32.1796875" style="24" customWidth="1"/>
+    <col min="6" max="6" width="32.36328125" style="24" customWidth="1"/>
+    <col min="7" max="7" width="9.90625" style="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="27" width="10.54296875" style="25" customWidth="1"/>
+    <col min="28" max="16384" width="11.1796875" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="6" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -1348,13 +1354,13 @@
       <c r="AA1" s="5"/>
     </row>
     <row r="2" spans="1:27" s="9" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A2" s="28">
+      <c r="A2" s="58">
         <v>1</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="35" t="s">
         <v>120</v>
       </c>
       <c r="D2" s="7"/>
@@ -1363,1061 +1369,1089 @@
       <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:27" s="12" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
-      <c r="B3" s="67"/>
-      <c r="C3" s="49" t="s">
+      <c r="A3" s="59"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="49" t="s">
+      <c r="E3" s="32" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="11"/>
-      <c r="G3" s="64" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" s="14" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A4" s="30">
+      <c r="G3" s="47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" s="14" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="62">
         <v>2</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
       <c r="F4" s="13"/>
-      <c r="G4" s="57"/>
+      <c r="G4" s="40"/>
     </row>
     <row r="5" spans="1:27" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="51" t="s">
+      <c r="A5" s="63"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="51" t="s">
+      <c r="D5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="49" t="s">
+      <c r="E5" s="32" t="s">
         <v>85</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="64" t="s">
+      <c r="G5" s="47" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:27" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="51" t="s">
+      <c r="A6" s="63"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="51" t="s">
+      <c r="E6" s="34" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="64" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="51" t="s">
+      <c r="G6" s="47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.3">
+      <c r="A7" s="63"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="G7" s="47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="64"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="49" t="s">
+      <c r="D8" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="51" t="s">
+      <c r="E8" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="64" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="51" t="s">
+      <c r="G8" s="47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="62">
+        <v>3</v>
+      </c>
+      <c r="B9" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="51" t="s">
+      <c r="D9" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="49" t="s">
+      <c r="E9" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="64" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="49" t="s">
+      <c r="G9" s="47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="63"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="49" t="s">
+      <c r="D10" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="51" t="s">
+      <c r="E10" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F10" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="64" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="49" t="s">
+      <c r="G10" s="47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="63"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="D10" s="49" t="s">
+      <c r="D11" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="51" t="s">
+      <c r="E11" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F11" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="G10" s="64" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" s="12" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="49" t="s">
+      <c r="G11" s="47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" s="12" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="63"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="D11" s="49" t="s">
+      <c r="D12" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="E11" s="49" t="s">
+      <c r="E12" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F12" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="64" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="49" t="s">
+      <c r="G12" s="47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="64"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="49" t="s">
+      <c r="D13" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="49" t="s">
+      <c r="E13" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F13" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="64" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" s="14" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A13" s="30">
-        <v>3</v>
-      </c>
-      <c r="B13" s="38" t="s">
+      <c r="G13" s="47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" s="14" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A14" s="55">
+        <v>4</v>
+      </c>
+      <c r="B14" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="56" t="s">
+      <c r="C14" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="57"/>
-    </row>
-    <row r="14" spans="1:27" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="31"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="49" t="s">
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="40"/>
+    </row>
+    <row r="15" spans="1:27" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="56"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="D14" s="49" t="s">
+      <c r="D15" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="E14" s="49" t="s">
+      <c r="E15" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F15" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="64" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="49" t="s">
+      <c r="G15" s="47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="56"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="49" t="s">
+      <c r="D16" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="E15" s="51"/>
-      <c r="F15" s="11" t="s">
+      <c r="E16" s="34"/>
+      <c r="F16" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G15" s="64" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="65" t="s">
+      <c r="G16" s="47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="56"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="D16" s="49" t="s">
+      <c r="D17" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="49" t="s">
+      <c r="E17" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F17" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="G16" s="64" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="31"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="65" t="s">
+      <c r="G17" s="47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="56"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="D17" s="49" t="s">
+      <c r="D18" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="51" t="s">
+      <c r="E18" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F18" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="G17" s="64" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="14" customFormat="1" ht="61.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="30">
-        <v>4</v>
-      </c>
-      <c r="B18" s="41" t="s">
+      <c r="G18" s="47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="14" customFormat="1" ht="61.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="62">
+        <v>5</v>
+      </c>
+      <c r="B19" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="56" t="s">
+      <c r="C19" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="57"/>
-    </row>
-    <row r="19" spans="1:7" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="31"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="51" t="s">
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="40"/>
+    </row>
+    <row r="20" spans="1:7" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="63"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="49" t="s">
+      <c r="D20" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="49" t="s">
+      <c r="E20" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="F20" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="G19" s="64" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="16" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="49" t="s">
+      <c r="G20" s="47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="16" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" s="64"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="49" t="s">
+      <c r="D21" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="E20" s="51" t="s">
+      <c r="E21" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F21" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="G20" s="64" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="18" customFormat="1" ht="40.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A21" s="30">
-        <v>5</v>
-      </c>
-      <c r="B21" s="38" t="s">
+      <c r="G21" s="47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="17" customFormat="1" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A22" s="55">
+        <v>6</v>
+      </c>
+      <c r="B22" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="56" t="s">
+      <c r="C22" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="57"/>
-    </row>
-    <row r="22" spans="1:7" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="32"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="51" t="s">
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="40"/>
+    </row>
+    <row r="23" spans="1:7" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="57"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="49" t="s">
+      <c r="D23" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="49" t="s">
+      <c r="E23" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F23" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="G22" s="64" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="14" customFormat="1" ht="40.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A23" s="30">
-        <v>6</v>
-      </c>
-      <c r="B23" s="38" t="s">
+      <c r="G23" s="47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="14" customFormat="1" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A24" s="55">
+        <v>7</v>
+      </c>
+      <c r="B24" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="56" t="s">
+      <c r="C24" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="57"/>
-    </row>
-    <row r="24" spans="1:7" s="12" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A24" s="31"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="49" t="s">
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="40"/>
+    </row>
+    <row r="25" spans="1:7" s="12" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A25" s="56"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="49" t="s">
+      <c r="D25" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="E24" s="49" t="s">
+      <c r="E25" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="F25" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="G24" s="64" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="12" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A25" s="32"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="49" t="s">
+      <c r="G25" s="47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="12" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A26" s="57"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="D25" s="49" t="s">
+      <c r="D26" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="E25" s="49" t="s">
+      <c r="E26" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="F25" s="11" t="s">
+      <c r="F26" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="G25" s="64" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="14" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="35">
+      <c r="G26" s="47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="14" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="65">
+        <v>8</v>
+      </c>
+      <c r="B27" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="38" t="s">
+      <c r="C27" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="42"/>
+    </row>
+    <row r="28" spans="1:7" s="12" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A28" s="66"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="F28" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="G28" s="47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="12" customFormat="1" ht="45.6" x14ac:dyDescent="0.25">
+      <c r="A29" s="65">
+        <v>9</v>
+      </c>
+      <c r="B29" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="F29" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="G29" s="47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" s="67"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="F30" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="G30" s="47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="67"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="E31" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="F31" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="G31" s="47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="66"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="F32" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="G32" s="47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="14" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="49">
+        <v>10</v>
+      </c>
+      <c r="B33" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="59"/>
-    </row>
-    <row r="27" spans="1:7" s="12" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A27" s="36"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="E27" s="49" t="s">
-        <v>90</v>
-      </c>
-      <c r="F27" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="G27" s="64" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="12" customFormat="1" ht="45.6" x14ac:dyDescent="0.25">
-      <c r="A28" s="27"/>
-      <c r="B28" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="C28" s="44" t="s">
-        <v>101</v>
-      </c>
-      <c r="D28" s="44" t="s">
-        <v>67</v>
-      </c>
-      <c r="E28" s="45" t="s">
-        <v>110</v>
-      </c>
-      <c r="F28" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="G28" s="64" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="27"/>
-      <c r="B29" s="40"/>
-      <c r="C29" s="46" t="s">
-        <v>112</v>
-      </c>
-      <c r="D29" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="E29" s="47" t="s">
-        <v>113</v>
-      </c>
-      <c r="F29" s="62" t="s">
-        <v>114</v>
-      </c>
-      <c r="G29" s="64" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="27"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="47" t="s">
-        <v>102</v>
-      </c>
-      <c r="D30" s="47" t="s">
-        <v>103</v>
-      </c>
-      <c r="E30" s="45" t="s">
-        <v>115</v>
-      </c>
-      <c r="F30" s="62" t="s">
-        <v>116</v>
-      </c>
-      <c r="G30" s="64" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A31" s="27"/>
-      <c r="B31" s="39"/>
-      <c r="C31" s="48" t="s">
-        <v>117</v>
-      </c>
-      <c r="D31" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="E31" s="47" t="s">
-        <v>113</v>
-      </c>
-      <c r="F31" s="62" t="s">
-        <v>114</v>
-      </c>
-      <c r="G31" s="64" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="14" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="33">
-        <v>8</v>
-      </c>
-      <c r="B32" s="38" t="s">
+      <c r="C33" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="33"/>
+    </row>
+    <row r="34" spans="1:7" s="14" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="53"/>
+      <c r="B34" s="54"/>
+      <c r="C34" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="E34" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="F34" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="G34" s="47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="12" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="50"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="F35" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="G35" s="47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="14" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="49">
+        <v>11</v>
+      </c>
+      <c r="B36" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="60" t="s">
-        <v>55</v>
-      </c>
-      <c r="D32" s="50"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="50"/>
-    </row>
-    <row r="33" spans="1:7" s="14" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="37"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="D33" s="49" t="s">
-        <v>83</v>
-      </c>
-      <c r="E33" s="49" t="s">
-        <v>91</v>
-      </c>
-      <c r="F33" s="53" t="s">
-        <v>98</v>
-      </c>
-      <c r="G33" s="64" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="12" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="34"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="D34" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="E34" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="F34" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="G34" s="64" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="14" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="33">
-        <v>9</v>
-      </c>
-      <c r="B35" s="38" t="s">
+      <c r="C36" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="33"/>
+    </row>
+    <row r="37" spans="1:7" s="12" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A37" s="50"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="D37" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E37" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="F37" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="G37" s="47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="14" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="49">
+        <v>12</v>
+      </c>
+      <c r="B38" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="60" t="s">
-        <v>61</v>
-      </c>
-      <c r="D35" s="50"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="63"/>
-      <c r="G35" s="50"/>
-    </row>
-    <row r="36" spans="1:7" s="12" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A36" s="34"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="51" t="s">
-        <v>62</v>
-      </c>
-      <c r="D36" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="E36" s="49" t="s">
-        <v>64</v>
-      </c>
-      <c r="F36" s="53" t="s">
-        <v>99</v>
-      </c>
-      <c r="G36" s="64" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" s="14" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="33">
-        <v>10</v>
-      </c>
-      <c r="B37" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="60" t="s">
+      <c r="C38" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="D37" s="50"/>
-      <c r="E37" s="50"/>
-      <c r="F37" s="63"/>
-      <c r="G37" s="50"/>
-    </row>
-    <row r="38" spans="1:7" s="12" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A38" s="34"/>
-      <c r="B38" s="39"/>
-      <c r="C38" s="49" t="s">
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="33"/>
+    </row>
+    <row r="39" spans="1:7" s="12" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A39" s="50"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="D38" s="49" t="s">
+      <c r="D39" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="E38" s="49" t="s">
+      <c r="E39" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="F38" s="53" t="s">
+      <c r="F39" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="G38" s="64" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" s="12" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="20"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
+      <c r="G39" s="47" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="40" spans="1:7" s="12" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="20"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
+      <c r="A40" s="19"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
     </row>
     <row r="41" spans="1:7" s="12" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="20"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="55"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
+      <c r="A41" s="19"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
     </row>
     <row r="42" spans="1:7" s="12" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="20"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
+      <c r="A42" s="19"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
     </row>
     <row r="43" spans="1:7" s="12" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="20"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
+      <c r="A43" s="19"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
     </row>
     <row r="44" spans="1:7" s="12" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="20"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
+      <c r="A44" s="19"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
     </row>
     <row r="45" spans="1:7" s="12" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="20"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
+      <c r="A45" s="19"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
     </row>
     <row r="46" spans="1:7" s="12" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="20"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
+      <c r="A46" s="19"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
     </row>
     <row r="47" spans="1:7" s="12" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="20"/>
-      <c r="B47" s="21"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
+      <c r="A47" s="19"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
     </row>
     <row r="48" spans="1:7" s="12" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="20"/>
-      <c r="B48" s="21"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
+      <c r="A48" s="19"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
     </row>
     <row r="49" spans="1:7" s="12" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="20"/>
-      <c r="B49" s="21"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
+      <c r="A49" s="19"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
     </row>
     <row r="50" spans="1:7" s="12" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="20"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
+      <c r="A50" s="19"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
     </row>
     <row r="51" spans="1:7" s="12" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="20"/>
-      <c r="B51" s="21"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="22"/>
+      <c r="A51" s="19"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
     </row>
     <row r="52" spans="1:7" s="12" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="20"/>
-      <c r="B52" s="21"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="22"/>
+      <c r="A52" s="19"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
     </row>
     <row r="53" spans="1:7" s="12" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="20"/>
-      <c r="B53" s="21"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="22"/>
-      <c r="G53" s="22"/>
+      <c r="A53" s="19"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21"/>
     </row>
     <row r="54" spans="1:7" s="12" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="20"/>
-      <c r="B54" s="21"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="22"/>
+      <c r="A54" s="19"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="21"/>
     </row>
     <row r="55" spans="1:7" s="12" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="20"/>
-      <c r="B55" s="21"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="22"/>
+      <c r="A55" s="19"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="21"/>
     </row>
     <row r="56" spans="1:7" s="12" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="20"/>
-      <c r="B56" s="21"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="22"/>
+      <c r="A56" s="19"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="21"/>
     </row>
     <row r="57" spans="1:7" s="12" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="20"/>
-      <c r="B57" s="21"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="22"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="22"/>
-      <c r="G57" s="22"/>
+      <c r="A57" s="19"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="21"/>
     </row>
     <row r="58" spans="1:7" s="12" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="20"/>
-      <c r="B58" s="21"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="22"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="22"/>
-      <c r="G58" s="22"/>
+      <c r="A58" s="19"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="21"/>
     </row>
     <row r="59" spans="1:7" s="12" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="20"/>
-      <c r="B59" s="21"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="22"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="22"/>
-      <c r="G59" s="22"/>
+      <c r="A59" s="19"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="21"/>
     </row>
     <row r="60" spans="1:7" s="12" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="20"/>
-      <c r="B60" s="21"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="22"/>
-      <c r="E60" s="22"/>
-      <c r="F60" s="22"/>
-      <c r="G60" s="22"/>
+      <c r="A60" s="19"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="21"/>
     </row>
     <row r="61" spans="1:7" s="12" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="20"/>
-      <c r="B61" s="21"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="22"/>
-      <c r="E61" s="22"/>
-      <c r="F61" s="22"/>
-      <c r="G61" s="22"/>
+      <c r="A61" s="19"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="21"/>
     </row>
     <row r="62" spans="1:7" s="12" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="20"/>
-      <c r="B62" s="21"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="22"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="22"/>
+      <c r="A62" s="19"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="21"/>
     </row>
     <row r="63" spans="1:7" s="12" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="20"/>
-      <c r="B63" s="21"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="22"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="22"/>
-      <c r="G63" s="22"/>
+      <c r="A63" s="19"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="21"/>
     </row>
     <row r="64" spans="1:7" s="12" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="20"/>
-      <c r="B64" s="21"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="22"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="22"/>
-      <c r="G64" s="22"/>
+      <c r="A64" s="19"/>
+      <c r="B64" s="20"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="21"/>
     </row>
     <row r="65" spans="1:7" s="12" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="20"/>
-      <c r="B65" s="21"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="22"/>
-      <c r="E65" s="22"/>
-      <c r="F65" s="22"/>
-      <c r="G65" s="22"/>
+      <c r="A65" s="19"/>
+      <c r="B65" s="20"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="21"/>
     </row>
     <row r="66" spans="1:7" s="12" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="20"/>
-      <c r="B66" s="21"/>
-      <c r="C66" s="22"/>
-      <c r="D66" s="22"/>
-      <c r="E66" s="22"/>
-      <c r="F66" s="22"/>
-      <c r="G66" s="22"/>
+      <c r="A66" s="19"/>
+      <c r="B66" s="20"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="21"/>
     </row>
     <row r="67" spans="1:7" s="12" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="20"/>
-      <c r="B67" s="21"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="22"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="22"/>
-      <c r="G67" s="22"/>
+      <c r="A67" s="19"/>
+      <c r="B67" s="20"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="21"/>
     </row>
     <row r="68" spans="1:7" s="12" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="20"/>
-      <c r="B68" s="21"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="22"/>
-      <c r="E68" s="22"/>
-      <c r="F68" s="22"/>
-      <c r="G68" s="22"/>
+      <c r="A68" s="19"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="21"/>
     </row>
     <row r="69" spans="1:7" s="12" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="20"/>
-      <c r="B69" s="21"/>
-      <c r="C69" s="22"/>
-      <c r="D69" s="22"/>
-      <c r="E69" s="22"/>
-      <c r="F69" s="22"/>
-      <c r="G69" s="22"/>
+      <c r="A69" s="19"/>
+      <c r="B69" s="20"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="21"/>
     </row>
     <row r="70" spans="1:7" s="12" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="20"/>
-      <c r="B70" s="21"/>
-      <c r="C70" s="22"/>
-      <c r="D70" s="22"/>
-      <c r="E70" s="22"/>
-      <c r="F70" s="22"/>
-      <c r="G70" s="22"/>
+      <c r="A70" s="19"/>
+      <c r="B70" s="20"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="21"/>
     </row>
     <row r="71" spans="1:7" s="12" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="20"/>
-      <c r="B71" s="21"/>
-      <c r="C71" s="22"/>
-      <c r="D71" s="22"/>
-      <c r="E71" s="22"/>
-      <c r="F71" s="22"/>
-      <c r="G71" s="22"/>
+      <c r="A71" s="19"/>
+      <c r="B71" s="20"/>
+      <c r="C71" s="21"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="21"/>
+      <c r="G71" s="21"/>
     </row>
     <row r="72" spans="1:7" s="12" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="20"/>
-      <c r="B72" s="21"/>
-      <c r="C72" s="22"/>
-      <c r="D72" s="22"/>
-      <c r="E72" s="22"/>
-      <c r="F72" s="22"/>
-      <c r="G72" s="22"/>
+      <c r="A72" s="19"/>
+      <c r="B72" s="20"/>
+      <c r="C72" s="21"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="21"/>
+      <c r="G72" s="21"/>
     </row>
     <row r="73" spans="1:7" s="12" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="20"/>
-      <c r="B73" s="21"/>
-      <c r="C73" s="22"/>
-      <c r="D73" s="22"/>
-      <c r="E73" s="22"/>
-      <c r="F73" s="22"/>
-      <c r="G73" s="22"/>
+      <c r="A73" s="19"/>
+      <c r="B73" s="20"/>
+      <c r="C73" s="21"/>
+      <c r="D73" s="21"/>
+      <c r="E73" s="21"/>
+      <c r="F73" s="21"/>
+      <c r="G73" s="21"/>
     </row>
     <row r="74" spans="1:7" s="12" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="20"/>
-      <c r="B74" s="21"/>
-      <c r="C74" s="22"/>
-      <c r="D74" s="22"/>
-      <c r="E74" s="22"/>
-      <c r="F74" s="22"/>
-      <c r="G74" s="22"/>
+      <c r="A74" s="19"/>
+      <c r="B74" s="20"/>
+      <c r="C74" s="21"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="21"/>
     </row>
     <row r="75" spans="1:7" s="12" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="20"/>
-      <c r="B75" s="21"/>
-      <c r="C75" s="22"/>
-      <c r="D75" s="22"/>
-      <c r="E75" s="22"/>
-      <c r="F75" s="22"/>
-      <c r="G75" s="22"/>
+      <c r="A75" s="19"/>
+      <c r="B75" s="20"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="21"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="21"/>
     </row>
     <row r="76" spans="1:7" s="12" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="20"/>
-      <c r="B76" s="21"/>
-      <c r="C76" s="22"/>
-      <c r="D76" s="22"/>
-      <c r="E76" s="22"/>
-      <c r="F76" s="22"/>
-      <c r="G76" s="22"/>
+      <c r="A76" s="19"/>
+      <c r="B76" s="20"/>
+      <c r="C76" s="21"/>
+      <c r="D76" s="21"/>
+      <c r="E76" s="21"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="21"/>
     </row>
     <row r="77" spans="1:7" s="12" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="20"/>
-      <c r="B77" s="21"/>
-      <c r="C77" s="22"/>
-      <c r="D77" s="22"/>
-      <c r="E77" s="22"/>
-      <c r="F77" s="22"/>
-      <c r="G77" s="22"/>
+      <c r="A77" s="19"/>
+      <c r="B77" s="20"/>
+      <c r="C77" s="21"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="21"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="21"/>
     </row>
     <row r="78" spans="1:7" s="12" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="20"/>
-      <c r="B78" s="21"/>
-      <c r="C78" s="22"/>
-      <c r="D78" s="22"/>
-      <c r="E78" s="22"/>
-      <c r="F78" s="22"/>
-      <c r="G78" s="22"/>
+      <c r="A78" s="19"/>
+      <c r="B78" s="20"/>
+      <c r="C78" s="21"/>
+      <c r="D78" s="21"/>
+      <c r="E78" s="21"/>
+      <c r="F78" s="21"/>
+      <c r="G78" s="21"/>
+    </row>
+    <row r="79" spans="1:7" s="12" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="19"/>
+      <c r="B79" s="20"/>
+      <c r="C79" s="21"/>
+      <c r="D79" s="21"/>
+      <c r="E79" s="21"/>
+      <c r="F79" s="21"/>
+      <c r="G79" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
+  <mergeCells count="24">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A4:A12"/>
-    <mergeCell ref="B4:B12"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="A29:A32"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="G5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
     <hyperlink ref="G6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="G7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="G8" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="G12" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="G9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="G11" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="G14" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="G17" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="G15" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="G16" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="G19" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="G20" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="G22" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="G24" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="G25" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="G27" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="G33" r:id="rId19" location="La_popularite_du_site" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="G34" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="G36" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="G38" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="G10" r:id="rId23" xr:uid="{93D02C08-D6FD-47C5-ABBD-B41DF041EC8E}"/>
-    <hyperlink ref="G28" r:id="rId24" xr:uid="{E37D6369-EE8A-4FDA-AAC6-913753CDA941}"/>
-    <hyperlink ref="G29:G31" r:id="rId25" display="Source" xr:uid="{12D5F9CC-67C4-4BEE-8AFA-EE2EB3CCA3C3}"/>
+    <hyperlink ref="G8" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="G9" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G13" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="G10" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G12" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="G15" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G18" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="G16" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G17" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="G20" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="G21" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="G23" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="G25" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="G26" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="G28" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="G34" r:id="rId19" location="La_popularite_du_site" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="G35" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="G37" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="G39" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="G11" r:id="rId23" xr:uid="{93D02C08-D6FD-47C5-ABBD-B41DF041EC8E}"/>
+    <hyperlink ref="G29" r:id="rId24" xr:uid="{E37D6369-EE8A-4FDA-AAC6-913753CDA941}"/>
+    <hyperlink ref="G30:G32" r:id="rId25" display="Source" xr:uid="{12D5F9CC-67C4-4BEE-8AFA-EE2EB3CCA3C3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="30" orientation="landscape" r:id="rId26"/>
